--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1377436.799480391</v>
+        <v>1415302.162898448</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453904</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7781842.913566398</v>
+        <v>8249392.319573624</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>276.4526260905143</v>
+        <v>350.2739145920731</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>163.9802861815828</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>41.24458363092477</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>167.8143852119906</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>227.0630285097812</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>7.460148869276849</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1105,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>3.198623919170825</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1145,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>103.9567510006024</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>321.6639898048733</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>48.79770074486534</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1300,7 +1302,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>123.862205503855</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1372,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>135.5273829632212</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1385,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.55990909157806</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,13 +1852,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>372.3536886992977</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>61.00232567042593</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>14.36834313439029</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2092,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.37144488016007</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2245,19 +2247,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>161.2306807140171</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.931232065001</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2369,19 +2371,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>228.2601210751809</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2539,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2618,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>174.1372571702749</v>
       </c>
       <c r="Y26" t="n">
-        <v>174.4275996389298</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>33.74095660611496</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.06736062834963</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2779,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>317.5475256392241</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2959,13 +2961,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>102.4891166554888</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.6942298771793</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3202,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.5325064797438</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3433,10 +3435,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>98.94574135710778</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3673,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>220.2647746254037</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V41" t="n">
-        <v>276.1827028029105</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.9263373332096</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3979,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>307.7194068174555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>169.1643986497844</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>770.0583231325802</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C2" t="n">
-        <v>763.9741364862543</v>
+        <v>1536.667839963388</v>
       </c>
       <c r="D2" t="n">
-        <v>763.5506106197189</v>
+        <v>1536.244314096852</v>
       </c>
       <c r="E2" t="n">
-        <v>484.3055337606135</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F2" t="n">
-        <v>467.315525754705</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1031.557412652331</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>1756.574528040604</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N2" t="n">
-        <v>1756.574528040604</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O2" t="n">
-        <v>2400.205384457709</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.87452311782</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2314.81403137733</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.976476713811</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1581.216175848979</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1581.216175848979</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>1180.27950279707</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161364</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844744</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.2608899736457</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>1075.685744088994</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>1531.492000354292</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L3" t="n">
-        <v>1531.492000354292</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.492000354292</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N3" t="n">
-        <v>2256.509115742565</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>2256.509115742565</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.898960151723</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1026.118326323386</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>860.4816736147163</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>700.9870289376263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>540.0762138059458</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>375.4450879165371</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>208.1946968420806</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1529.502786663659</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1289.954047640361</v>
       </c>
       <c r="U4" t="n">
-        <v>1305.187990814512</v>
+        <v>1007.155900186485</v>
       </c>
       <c r="V4" t="n">
-        <v>1305.187990814512</v>
+        <v>733.2701551260075</v>
       </c>
       <c r="W4" t="n">
-        <v>1026.118326323386</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="X4" t="n">
-        <v>1026.118326323386</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y4" t="n">
-        <v>1026.118326323386</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1554.755297049321</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C5" t="n">
-        <v>1144.630706362591</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D5" t="n">
-        <v>740.1667764556519</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E5" t="n">
-        <v>570.6572964435402</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>149.6268843972278</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>58.5872416475372</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>771.1786414597752</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1496.195756848048</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>2221.212872236321</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>2864.843728653426</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.87452311782</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2314.81403137733</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1964.976476713811</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.976476713811</v>
+        <v>894.5120813627283</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.976476713811</v>
+        <v>894.5120813627283</v>
       </c>
       <c r="Y5" t="n">
-        <v>1964.976476713811</v>
+        <v>894.5120813627283</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.481669832124</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.481669832124</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O6" t="n">
-        <v>1513.811025646877</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>2075.516918135407</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>827.2953896508971</v>
+        <v>493.8356298529682</v>
       </c>
       <c r="C7" t="n">
-        <v>656.2020172126136</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="D7" t="n">
-        <v>496.7073725355236</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="E7" t="n">
-        <v>496.7073725355236</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="F7" t="n">
-        <v>332.0762466461148</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.437399245089</v>
+        <v>1567.933048998764</v>
       </c>
       <c r="U7" t="n">
-        <v>1065.639251791214</v>
+        <v>1285.134901544888</v>
       </c>
       <c r="V7" t="n">
-        <v>1065.639251791214</v>
+        <v>1011.24915648441</v>
       </c>
       <c r="W7" t="n">
-        <v>1065.639251791214</v>
+        <v>732.1794919932847</v>
       </c>
       <c r="X7" t="n">
-        <v>827.2953896508971</v>
+        <v>493.8356298529682</v>
       </c>
       <c r="Y7" t="n">
-        <v>827.2953896508971</v>
+        <v>493.8356298529682</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.592851712841</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1494.468261026111</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1090.004331119171</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>675.6641156360679</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>254.6337035897554</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9458235229917</v>
+        <v>483.2779855225777</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>172.3694881502957</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>878.3626980441627</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>1590.954097856401</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>2367.272688848155</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>3120.453705486773</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>3764.084561903878</v>
       </c>
       <c r="P8" t="n">
-        <v>2864.843728653426</v>
+        <v>4293.241259823029</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368442</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368442</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4300.886273368442</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>4078.679789315301</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.81403137733</v>
+        <v>4078.679789315301</v>
       </c>
       <c r="V8" t="n">
-        <v>2314.81403137733</v>
+        <v>4078.679789315301</v>
       </c>
       <c r="W8" t="n">
-        <v>2314.81403137733</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>2314.81403137733</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2314.81403137733</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471287</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>541.8239817326676</v>
       </c>
       <c r="L9" t="n">
-        <v>839.4134544636129</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="M9" t="n">
-        <v>839.4134544636129</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="N9" t="n">
-        <v>839.4134544636129</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.1965936209815</v>
+        <v>1053.548810143217</v>
       </c>
       <c r="C10" t="n">
-        <v>812.1965936209815</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>652.7019489438915</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>491.791133812211</v>
+        <v>683.8527435214514</v>
       </c>
       <c r="F10" t="n">
-        <v>491.791133812211</v>
+        <v>519.2216176320427</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>351.9712265575861</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>202.3637713630427</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748779</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.8137593153712</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1401.594370148297</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1162.045631125</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1036.932292232217</v>
+        <v>1332.618474634343</v>
       </c>
       <c r="V10" t="n">
-        <v>1036.932292232217</v>
+        <v>1332.618474634343</v>
       </c>
       <c r="W10" t="n">
-        <v>1036.932292232217</v>
+        <v>1053.548810143217</v>
       </c>
       <c r="X10" t="n">
-        <v>1036.932292232217</v>
+        <v>1053.548810143217</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.1965936209815</v>
+        <v>1053.548810143217</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1111.594046911441</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1111.594046911441</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1111.594046911441</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>974.6977004839443</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>553.6672884376319</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>144.9390043304641</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>144.9390043304641</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1435.413521245312</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1435.413521245312</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2079.044377662417</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2608.201075581568</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2707.155598323719</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2707.155598323719</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2707.155598323719</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W11" t="n">
-        <v>2323.395297458887</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>1922.75189962784</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>1521.81522657593</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>1401.119346952143</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>1814.712936990346</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>1111.429368843485</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2514.534933932999</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>2104.410343246269</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1699.94641333933</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1285.606197856226</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>864.5757858099139</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1309.338142568815</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2034.355257957088</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2034.355257957088</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2677.986114374193</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>2929.36208237686</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2929.36208237686</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2924.756113597488</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>489.5689897796294</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>489.5689897796294</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>489.5689897796294</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O15" t="n">
-        <v>1193.526080325524</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>1755.231972814054</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1392.027034650488</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N18" t="n">
-        <v>1789.888428857139</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.6240469015422</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="C19" t="n">
-        <v>745.5306744632587</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="D19" t="n">
-        <v>586.0360297861687</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="E19" t="n">
-        <v>425.1252146544881</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1343.572929820347</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X19" t="n">
-        <v>1329.059451906822</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="Y19" t="n">
-        <v>1104.323753295587</v>
+        <v>588.0661006335047</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4572.920798793604</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4350.714314740463</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4093.653822999973</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3743.816268336454</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3360.055967471622</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4054.869447136969</v>
+        <v>905.320686964405</v>
       </c>
       <c r="C22" t="n">
-        <v>3883.776074698686</v>
+        <v>734.2273145261215</v>
       </c>
       <c r="D22" t="n">
-        <v>3724.281430021596</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E22" t="n">
-        <v>3563.370614889915</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F22" t="n">
-        <v>3398.739489000507</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1188.118834418281</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>905.320686964405</v>
       </c>
       <c r="V22" t="n">
-        <v>4662.18488453114</v>
+        <v>905.320686964405</v>
       </c>
       <c r="W22" t="n">
-        <v>4662.18488453114</v>
+        <v>905.320686964405</v>
       </c>
       <c r="X22" t="n">
-        <v>4467.30485214225</v>
+        <v>905.320686964405</v>
       </c>
       <c r="Y22" t="n">
-        <v>4242.569153531014</v>
+        <v>905.320686964405</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6017,16 +6019,16 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
         <v>3360.349242692484</v>
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>4431.619105667321</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.820958213445</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>3874.935213152967</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W25" t="n">
-        <v>3595.865548661841</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X25" t="n">
-        <v>3357.521686521525</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>275.6758118380055</v>
       </c>
     </row>
     <row r="26">
@@ -6227,46 +6229,46 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674161</v>
       </c>
       <c r="L26" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079654</v>
       </c>
       <c r="M26" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P26" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325239</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325239</v>
       </c>
       <c r="U26" t="n">
-        <v>4269.84331758475</v>
+        <v>4269.843317584749</v>
       </c>
       <c r="V26" t="n">
-        <v>3920.005762921231</v>
+        <v>3920.00576292123</v>
       </c>
       <c r="W26" t="n">
         <v>3536.245462056399</v>
       </c>
       <c r="X26" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
         <v>2959.412569640574</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>607.5209443501507</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>436.4275719118672</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>276.9329272347772</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1593.281623979807</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1406.889855859717</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>1167.341116836419</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U28" t="n">
-        <v>884.5429693825431</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V28" t="n">
-        <v>610.6572243220651</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W28" t="n">
-        <v>331.5875598309394</v>
+        <v>1258.300211495747</v>
       </c>
       <c r="X28" t="n">
-        <v>93.2436976906228</v>
+        <v>1019.95634935543</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>795.220650744195</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>423.0977207349383</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.074801429505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4011.405617385543</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>3840.31224494726</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3680.81760027017</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3519.906785138489</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3416.38242488042</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3249.132033805963</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>4423.841022390823</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>4199.105323779588</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6698,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6725,16 +6727,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
         <v>3760.992640523532</v>
@@ -6786,10 +6788,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X34" t="n">
-        <v>1339.844446857597</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y34" t="n">
-        <v>1339.844446857597</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.342609327206</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>741.8628115185547</v>
+        <v>3084.569701873628</v>
       </c>
       <c r="N36" t="n">
-        <v>741.8628115185547</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.6240469015422</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C37" t="n">
-        <v>745.5306744632587</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D37" t="n">
-        <v>586.0360297861687</v>
+        <v>3401.747935779044</v>
       </c>
       <c r="E37" t="n">
-        <v>425.1252146544881</v>
+        <v>3240.837120647363</v>
       </c>
       <c r="F37" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>1348.756849250995</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W37" t="n">
-        <v>1069.687184759869</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X37" t="n">
-        <v>1069.687184759869</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y37" t="n">
-        <v>1069.687184759869</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3788.915946046752</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="C40" t="n">
-        <v>3617.822573608469</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D40" t="n">
-        <v>3458.327928931379</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E40" t="n">
-        <v>3297.417113799698</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F40" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I40" t="n">
         <v>3132.785987910289</v>
@@ -7354,28 +7356,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="W40" t="n">
-        <v>4439.695213192348</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="X40" t="n">
-        <v>4201.351351052032</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="Y40" t="n">
-        <v>3976.615652440797</v>
+        <v>4150.971659063151</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.183171250072</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C41" t="n">
-        <v>2018.058580563342</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D41" t="n">
-        <v>1613.594650656403</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.254435173299</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F41" t="n">
-        <v>778.224023126987</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G41" t="n">
-        <v>369.4957390198192</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>835.6969951832094</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1560.714110571482</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2707.155598323719</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2707.155598323719</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V41" t="n">
-        <v>2428.183171250072</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W41" t="n">
-        <v>2428.183171250072</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X41" t="n">
-        <v>2428.183171250072</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y41" t="n">
-        <v>2428.183171250072</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>514.3934979128359</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>514.3934979128359</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>514.3934979128359</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>839.4134544636129</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>1543.370545009507</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1399.96318575601</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C43" t="n">
-        <v>1399.96318575601</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D43" t="n">
-        <v>1399.96318575601</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E43" t="n">
-        <v>1399.96318575601</v>
+        <v>201.2948304276971</v>
       </c>
       <c r="F43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.045735161221</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>1568.598062883459</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.495163163519</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>2117.759219604013</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>2398.598001998263</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>2658.158612324737</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>2863.834052574349</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>2844.08936405226</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>2657.69759593217</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>2418.148856908872</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>2135.350709454996</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>1861.464964394518</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>1861.464964394518</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X43" t="n">
-        <v>1623.121102254202</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y43" t="n">
-        <v>1399.96318575601</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>369.4149253015327</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C44" t="n">
-        <v>58.5872416475372</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D44" t="n">
-        <v>58.5872416475372</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E44" t="n">
-        <v>58.5872416475372</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
-        <v>1563.523614036569</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2245.17458027019</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2245.17458027019</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2888.805436687295</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.976476713811</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>1581.216175848979</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>1180.572778017932</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>779.6361049660221</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>676.1022315638701</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1401.119346952143</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>656.4222597016197</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>656.4222597016197</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>656.4222597016197</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>656.4222597016197</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>491.791133812211</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1348.437399245089</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>1065.639251791214</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V46" t="n">
-        <v>1065.639251791214</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W46" t="n">
-        <v>894.7661218419364</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X46" t="n">
-        <v>656.4222597016197</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y46" t="n">
-        <v>656.4222597016197</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>534.6880949272427</v>
+        <v>537.3610023606261</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5308490940272</v>
+        <v>525.3716274158285</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P5" t="n">
-        <v>158.8194175469794</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,10 +8297,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>203.4176284083937</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8307,16 +8309,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>399.498303055306</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>155.2038586652473</v>
+        <v>97.75604030360905</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8535,7 +8537,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8544,7 +8546,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215992</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>764.2345474727388</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8711,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8771,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>745.891489178132</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8784,10 +8786,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>384.9956049197649</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>306.5981736981594</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>296.6891607496965</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9179,13 +9181,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0735895620846</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>602.1626079691122</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9410,7 +9412,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -10194,16 +10196,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10434,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10662,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>548.9835243030855</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10905,16 +10907,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>336.8492894028778</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>381.4963798086763</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11303,19 +11305,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>781.8265539859558</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11382,10 +11384,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O45" t="n">
         <v>768.8192472281761</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>274.6694303650511</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>70.43669735679175</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.3673972298128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23738,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>37.84312462897452</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>101.9824889600887</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.55681957368007</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>75.92257091904784</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24190,10 +24192,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>43.0291914539124</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24257,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340614</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>8.893130557884007</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>222.4997066824621</v>
       </c>
       <c r="Y26" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>125.5607503742488</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24616,7 +24618,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.35263051300471</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>88.57144222862047</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>60.49569797502589</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.12847945292467</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.29020285036015</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25369,16 +25371,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>70.43669735679288</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -25609,13 +25611,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>56.01419322081068</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V41" t="n">
-        <v>70.15647631397366</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081109</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.562004291913325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>98.30393796240708</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>107.11456919643</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>766912.048403901</v>
+        <v>761941.3561817531</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>766912.048403901</v>
+        <v>761941.3561817531</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766912.048403901</v>
+        <v>775017.3407592701</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>535100.6933804909</v>
+        <v>695891.2393747186</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>535100.6933804911</v>
+        <v>695891.2393747187</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695891.2393747186</v>
+        <v>695891.2393747185</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695891.2393747189</v>
+        <v>695891.2393747187</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695891.2393747186</v>
+        <v>695891.2393747187</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695891.2393747187</v>
+        <v>695891.2393747185</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>535100.693380491</v>
+        <v>695891.2393747186</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>535100.693380491</v>
+        <v>695891.2393747186</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811426</v>
+        <v>407205.9825811424</v>
       </c>
       <c r="C2" t="n">
-        <v>407205.9825811423</v>
+        <v>407205.9825811425</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811422</v>
+        <v>407205.9825811424</v>
       </c>
       <c r="E2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188672</v>
       </c>
       <c r="F2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188675</v>
       </c>
       <c r="G2" t="n">
+        <v>362060.8344188674</v>
+      </c>
+      <c r="H2" t="n">
         <v>362060.8344188675</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>362060.8344188674</v>
-      </c>
-      <c r="I2" t="n">
-        <v>362060.8344188675</v>
       </c>
       <c r="J2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="K2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="L2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="M2" t="n">
-        <v>362060.8344188673</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="N2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="O2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="P2" t="n">
-        <v>278421.8964570258</v>
+        <v>362060.8344188675</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100687</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.954180934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647529</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404723</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152083.7444815841</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="C4" t="n">
-        <v>152083.7444815841</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>152083.7444815841</v>
+        <v>99895.51658519956</v>
       </c>
       <c r="E4" t="n">
-        <v>34474.59853473143</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>34474.59853473142</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
@@ -26436,28 +26438,28 @@
         <v>44919.86535090265</v>
       </c>
       <c r="I4" t="n">
+        <v>44919.86535090265</v>
+      </c>
+      <c r="J4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="J4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="K4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="O4" t="n">
         <v>44919.86535090265</v>
       </c>
-      <c r="O4" t="n">
-        <v>34474.59853473143</v>
-      </c>
       <c r="P4" t="n">
-        <v>34474.59853473143</v>
+        <v>44919.86535090265</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520031</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68455.81783566493</v>
+        <v>-17207.55113436332</v>
       </c>
       <c r="C6" t="n">
-        <v>176968.33444743</v>
+        <v>157747.9587587508</v>
       </c>
       <c r="D6" t="n">
-        <v>176968.3344474298</v>
+        <v>36481.92573067377</v>
       </c>
       <c r="E6" t="n">
-        <v>199420.994270166</v>
+        <v>219306.8046421573</v>
       </c>
       <c r="F6" t="n">
-        <v>199420.994270166</v>
+        <v>246275.7588230915</v>
       </c>
       <c r="G6" t="n">
-        <v>127540.5743909776</v>
+        <v>246275.7588230914</v>
       </c>
       <c r="H6" t="n">
-        <v>246275.7588230914</v>
+        <v>246275.7588230916</v>
       </c>
       <c r="I6" t="n">
         <v>246275.7588230915</v>
       </c>
       <c r="J6" t="n">
-        <v>54663.25565273859</v>
+        <v>109680.9580171965</v>
       </c>
       <c r="K6" t="n">
-        <v>246275.7588230916</v>
+        <v>246275.7588230915</v>
       </c>
       <c r="L6" t="n">
+        <v>106276.4479583385</v>
+      </c>
+      <c r="M6" t="n">
+        <v>223766.4940490442</v>
+      </c>
+      <c r="N6" t="n">
+        <v>246275.7588230914</v>
+      </c>
+      <c r="O6" t="n">
         <v>246275.7588230915</v>
       </c>
-      <c r="M6" t="n">
-        <v>246275.7588230913</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>246275.7588230915</v>
-      </c>
-      <c r="O6" t="n">
-        <v>199420.994270166</v>
-      </c>
-      <c r="P6" t="n">
-        <v>199420.9942701661</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720849</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067445</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720849</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067443</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720849</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067445</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>133.7441872377579</v>
+        <v>59.9228987361991</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.402152532317814</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27585,16 +27587,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>143.2832668079641</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>242.3824281162817</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>152.8596693464019</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27786,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1177382944352</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,16 +27827,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.9546277138941</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>203.8426613979568</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>58.25870805130984</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>120.5847379690353</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>156.1079604754821</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>439.2026968643979</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>326.2712140912235</v>
+        <v>471.1119924130247</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P5" t="n">
-        <v>65.17005426609525</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>147.5918456237783</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>341.746824055306</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>65.17005426609525</v>
+        <v>7.722235904457009</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215992</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>670.9443230156933</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35431,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>328.3029864149262</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>212.9488104172752</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>240.5746369388474</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,13 +35901,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>401.8801961683346</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>491.2320453030855</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>241.363891340033</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>328.3029864149263</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38023,19 +38025,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>688.5363295289103</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38102,10 +38104,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O45" t="n">
         <v>711.0677682281761</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1415302.162898448</v>
+        <v>1413989.517442868</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8249392.319573624</v>
+        <v>8249392.319573626</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>331.1901009794557</v>
       </c>
       <c r="E2" t="n">
-        <v>350.2739145920731</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>41.24458363092477</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>116.2725155264515</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -904,19 +904,19 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>303.5843874646999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -958,10 +958,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>227.0630285097812</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3.198623919170825</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>69.56032144960754</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>317.8296481426713</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1150,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>321.6639898048733</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>48.79770074486534</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1423,16 +1423,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>187.6971066458115</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>98.9457413571089</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>36.33272674071001</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1663,10 +1663,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>359.0841816924166</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>93.86998482510113</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1849,16 +1849,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>91.8634291666399</v>
       </c>
       <c r="E17" t="n">
-        <v>372.3536886992977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10.11855433714967</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>61.00232567042593</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2134,13 +2134,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>161.2306807140171</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>108.5666746538242</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>250.5324088384432</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2541,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>174.1372571702749</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2715,13 +2715,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>33.74095660611496</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>27.77250173713467</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>317.5475256392241</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2806,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>308.4960544879101</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>337.8578625689831</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3198,13 +3198,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3271,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3426,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>6.427356204027025</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>106.9706214097034</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>271.4342543713333</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>77.72590661309994</v>
       </c>
       <c r="C40" t="n">
-        <v>98.94574135710778</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3717,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>119.8051733265733</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>320.6751611476632</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>205.2934183826711</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.7560630900389</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.752026609714</v>
+        <v>414.362427326103</v>
       </c>
       <c r="C2" t="n">
-        <v>1536.667839963388</v>
+        <v>408.2782406797772</v>
       </c>
       <c r="D2" t="n">
-        <v>1536.244314096852</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.432279155364</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.973206274203</v>
+        <v>824.5836069905924</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161364</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844744</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736457</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960203</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959273</v>
+        <v>497.571341894901</v>
       </c>
       <c r="M3" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
         <v>2058.694762117472</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.898960151723</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>802.9377297246015</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>631.844357286318</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>472.349712609228</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1529.502786663659</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1289.954047640361</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1007.155900186485</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>733.2701551260075</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>454.2004906348818</v>
+        <v>1453.716996870198</v>
       </c>
       <c r="X4" t="n">
-        <v>454.2004906348818</v>
+        <v>1215.373134729881</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.4647920236465</v>
+        <v>990.6374361186458</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.3313057386429</v>
+        <v>468.5652767029877</v>
       </c>
       <c r="C5" t="n">
-        <v>882.247119092317</v>
+        <v>462.4810900566619</v>
       </c>
       <c r="D5" t="n">
-        <v>881.8235932257816</v>
+        <v>462.0575641901265</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>451.7577527474272</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>434.7677447415188</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>812.7934917636817</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
         <v>1767.09327468481</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1123.868675817053</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>894.5120813627283</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X5" t="n">
-        <v>894.5120813627283</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.5120813627283</v>
+        <v>474.7460523270731</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,22 +4649,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>187.8810127971426</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>704.7239474634679</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>704.7239474634679</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N6" t="n">
-        <v>704.7239474634679</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>493.8356298529682</v>
+        <v>850.121764145656</v>
       </c>
       <c r="C7" t="n">
-        <v>322.7422574146847</v>
+        <v>679.0283917073725</v>
       </c>
       <c r="D7" t="n">
-        <v>322.7422574146847</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="E7" t="n">
-        <v>322.7422574146847</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1567.933048998764</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1285.134901544888</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1011.24915648441</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>732.1794919932847</v>
+        <v>1500.901031291252</v>
       </c>
       <c r="X7" t="n">
-        <v>493.8356298529682</v>
+        <v>1262.557169150936</v>
       </c>
       <c r="Y7" t="n">
-        <v>493.8356298529682</v>
+        <v>1037.8214705397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>2231.056920380548</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1820.932329693819</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225777</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502957</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441627</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.954097856401</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848155</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>3120.453705486773</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3764.084561903878</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>4293.241259823029</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>4300.886273368442</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368442</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368442</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4078.679789315301</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4078.679789315301</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>4078.679789315301</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2552.096969009509</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471287</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736883</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326676</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>1202.912153651956</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="M9" t="n">
-        <v>1202.912153651956</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="N9" t="n">
-        <v>1202.912153651956</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1053.548810143217</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
         <v>1004.258203330222</v>
@@ -4947,19 +4947,19 @@
         <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>683.8527435214514</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>519.2216176320427</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>351.9712265575861</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630427</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4968,10 +4968,10 @@
         <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.5497028748779</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>803.8137593153712</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
         <v>1084.652541709621</v>
@@ -4995,19 +4995,19 @@
         <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1332.618474634343</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1332.618474634343</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.548810143217</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.548810143217</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.548810143217</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E11" t="n">
         <v>1320.262653899312</v>
@@ -5071,22 +5071,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V11" t="n">
-        <v>4047.636833531609</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M12" t="n">
-        <v>549.0499539559215</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>549.0499539559215</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1253.007044501816</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1814.712936990346</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1111.429368843485</v>
+        <v>425.2478852605868</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.429368843485</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.429368843485</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W13" t="n">
-        <v>1111.429368843485</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.429368843485</v>
+        <v>837.6832902658665</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.429368843485</v>
+        <v>612.9475916546312</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5311,19 +5311,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
         <v>2139.732893541123</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>911.5343697921442</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.0661006335047</v>
+        <v>417.7030407312917</v>
       </c>
       <c r="C19" t="n">
-        <v>588.0661006335047</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="D19" t="n">
-        <v>588.0661006335047</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="E19" t="n">
-        <v>588.0661006335047</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5706,19 +5706,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W19" t="n">
-        <v>826.4099627738212</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X19" t="n">
-        <v>588.0661006335047</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="Y19" t="n">
-        <v>588.0661006335047</v>
+        <v>605.4027471253361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>905.320686964405</v>
+        <v>683.3229693473388</v>
       </c>
       <c r="C22" t="n">
-        <v>734.2273145261215</v>
+        <v>683.3229693473388</v>
       </c>
       <c r="D22" t="n">
-        <v>574.7326698490315</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="E22" t="n">
-        <v>574.7326698490315</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T22" t="n">
-        <v>1188.118834418281</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U22" t="n">
-        <v>905.320686964405</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V22" t="n">
-        <v>905.320686964405</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W22" t="n">
-        <v>905.320686964405</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="X22" t="n">
-        <v>905.320686964405</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.320686964405</v>
+        <v>871.0226757413832</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275.6758118380055</v>
+        <v>578.280283388802</v>
       </c>
       <c r="C25" t="n">
-        <v>275.6758118380055</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D25" t="n">
-        <v>275.6758118380055</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E25" t="n">
-        <v>275.6758118380055</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F25" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1369.579555080722</v>
       </c>
       <c r="V25" t="n">
-        <v>554.7454763291312</v>
+        <v>1095.693810020244</v>
       </c>
       <c r="W25" t="n">
-        <v>275.6758118380055</v>
+        <v>816.6241455291186</v>
       </c>
       <c r="X25" t="n">
-        <v>275.6758118380055</v>
+        <v>578.280283388802</v>
       </c>
       <c r="Y25" t="n">
-        <v>275.6758118380055</v>
+        <v>578.280283388802</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6229,49 +6229,49 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674161</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
-        <v>1598.180070079654</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M26" t="n">
-        <v>2374.498661071407</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.903809325239</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.903809325239</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4269.843317584749</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3920.00576292123</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>607.5209443501507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>436.4275719118672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>276.9329272347772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1594.589562253761</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1355.040823230463</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1072.242675776587</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>798.3569307161094</v>
       </c>
       <c r="W28" t="n">
-        <v>1258.300211495747</v>
+        <v>519.2872662249838</v>
       </c>
       <c r="X28" t="n">
-        <v>1019.95634935543</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y28" t="n">
-        <v>795.220650744195</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6463,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4055.286838127131</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W29" t="n">
-        <v>3671.526537262299</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X29" t="n">
-        <v>3270.883139431251</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2869.946466379341</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6651,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D32" t="n">
         <v>1734.602869382415</v>
@@ -6700,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4011.405617385543</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C34" t="n">
-        <v>3840.31224494726</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D34" t="n">
-        <v>3680.81760027017</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E34" t="n">
-        <v>3519.906785138489</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X34" t="n">
-        <v>4423.841022390823</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y34" t="n">
-        <v>4199.105323779588</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>3084.569701873628</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>3958.227793985246</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3732.335952894417</v>
+        <v>413.9745577685416</v>
       </c>
       <c r="C37" t="n">
-        <v>3561.242580456134</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="D37" t="n">
-        <v>3401.747935779044</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="E37" t="n">
-        <v>3240.837120647363</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4383.115220040014</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X37" t="n">
-        <v>4144.771357899697</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y37" t="n">
-        <v>3920.035659288462</v>
+        <v>601.6742641625859</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4150.971659063151</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>4150.971659063151</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>4150.971659063151</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>4150.971659063151</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W40" t="n">
-        <v>4150.971659063151</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X40" t="n">
-        <v>4150.971659063151</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="Y40" t="n">
-        <v>4150.971659063151</v>
+        <v>171.7547144715318</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2238.282892603803</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.158301917073</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.694372010133</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4183.681998679601</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.844444016082</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W41" t="n">
-        <v>3450.08414315125</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.440745320202</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y41" t="n">
-        <v>2648.504072268292</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>521.7002902364676</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>362.2056455593776</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>201.2948304276971</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>1105.229067680031</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.4933690687955</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2359.298219196301</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.173628509571</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D44" t="n">
-        <v>1544.709698602632</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E44" t="n">
-        <v>1130.369483119528</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F44" t="n">
-        <v>709.339071073216</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>300.6107869660482</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3954.85977060858</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W44" t="n">
-        <v>3571.099469743748</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.456071912701</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y44" t="n">
-        <v>2769.519398860791</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>1537.369875986873</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>1312.634177375637</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>537.3610023606261</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8060,22 +8060,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>63.89502594283658</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>525.3716274158285</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>535.0653799235644</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8297,16 +8297,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>203.4176284083937</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>98.12401665379711</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8315,7 +8315,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>531.8357165796273</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>97.75604030360905</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,16 +8546,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>429.3564034215992</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>384.9956049197649</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8938,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9181,13 +9181,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9260,13 +9260,13 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>602.1626079691122</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>448.4101882023532</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>531.174398074769</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>32.28731256679822</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.43669735679175</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>199.6276967782034</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>37.84312462897418</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="E17" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>159.263884376751</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>101.9824889600887</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>75.92257091904784</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24195,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>113.9216669712987</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>82.68617307340614</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>29.43775714089386</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>222.4997066824621</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>125.5607503742488</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24618,7 +24618,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>156.7553487017542</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>88.57144222862047</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>96.14494677818601</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>62.5614280388869</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25134,10 +25134,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>162.9550825098736</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>56.01419322081128</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,19 +25365,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>108.096802717004</v>
       </c>
       <c r="C40" t="n">
-        <v>70.43669735679288</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081109</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>96.14494677818607</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.0666462400651</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695891.2393747186</v>
+        <v>695891.2393747189</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695891.2393747187</v>
+        <v>695891.2393747189</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695891.2393747185</v>
+        <v>695891.2393747189</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695891.2393747186</v>
+        <v>695891.2393747189</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695891.2393747187</v>
+        <v>695891.2393747189</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695891.2393747187</v>
+        <v>695891.2393747189</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695891.2393747185</v>
+        <v>695891.2393747187</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695891.2393747186</v>
+        <v>695891.2393747187</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695891.2393747186</v>
+        <v>695891.2393747189</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811424</v>
+        <v>407205.9825811423</v>
       </c>
       <c r="C2" t="n">
         <v>407205.9825811425</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811424</v>
+        <v>407205.9825811425</v>
       </c>
       <c r="E2" t="n">
-        <v>362060.8344188672</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="F2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="G2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="H2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="I2" t="n">
         <v>362060.8344188674</v>
@@ -26343,19 +26343,19 @@
         <v>362060.8344188674</v>
       </c>
       <c r="L2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="M2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="N2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="O2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188672</v>
       </c>
       <c r="P2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188672</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100687</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.954180934</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647529</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404723</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>99895.51658519956</v>
+        <v>99895.51658519972</v>
       </c>
       <c r="E4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="I4" t="n">
         <v>44919.86535090265</v>
@@ -26453,13 +26453,13 @@
         <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="O4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520031</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17207.55113436332</v>
+        <v>-17207.55113436335</v>
       </c>
       <c r="C6" t="n">
         <v>157747.9587587508</v>
       </c>
       <c r="D6" t="n">
-        <v>36481.92573067377</v>
+        <v>36481.92573067406</v>
       </c>
       <c r="E6" t="n">
-        <v>219306.8046421573</v>
+        <v>219126.2240495081</v>
       </c>
       <c r="F6" t="n">
-        <v>246275.7588230915</v>
+        <v>246095.1782304424</v>
       </c>
       <c r="G6" t="n">
-        <v>246275.7588230914</v>
+        <v>246095.1782304423</v>
       </c>
       <c r="H6" t="n">
-        <v>246275.7588230916</v>
+        <v>246095.1782304423</v>
       </c>
       <c r="I6" t="n">
-        <v>246275.7588230915</v>
+        <v>246095.1782304423</v>
       </c>
       <c r="J6" t="n">
-        <v>109680.9580171965</v>
+        <v>109500.3774245473</v>
       </c>
       <c r="K6" t="n">
-        <v>246275.7588230915</v>
+        <v>246095.1782304423</v>
       </c>
       <c r="L6" t="n">
-        <v>106276.4479583385</v>
+        <v>106095.8673656895</v>
       </c>
       <c r="M6" t="n">
-        <v>223766.4940490442</v>
+        <v>223585.9134563948</v>
       </c>
       <c r="N6" t="n">
-        <v>246275.7588230914</v>
+        <v>246095.1782304423</v>
       </c>
       <c r="O6" t="n">
-        <v>246275.7588230915</v>
+        <v>246095.1782304422</v>
       </c>
       <c r="P6" t="n">
-        <v>246275.7588230915</v>
+        <v>246095.1782304422</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720849</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067445</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720849</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067443</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720849</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067445</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>69.22918962841436</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>59.9228987361991</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>143.2832668079641</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>160.0064523197628</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>101.0566138013962</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>152.8596693464019</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>233.9546277138941</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>206.7186463966068</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>88.2893197251733</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>58.25870805130984</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>120.5847379690353</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>10.70163254908659</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>471.1119924130247</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>441.8756042977812</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>147.5918456237783</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>40.55973291537969</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35035,7 +35035,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>442.6993269064101</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.722235904457009</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>371.6049244215992</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.3029864149262</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>547.9029729663084</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
